--- a/Code/Results/Cases/Case_9_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.586886539435341</v>
+        <v>2.590410710224432</v>
       </c>
       <c r="C2">
-        <v>0.4851725528688462</v>
+        <v>0.4864990421297932</v>
       </c>
       <c r="D2">
-        <v>0.08081515790883742</v>
+        <v>0.0820471634164619</v>
       </c>
       <c r="E2">
-        <v>0.0581636106177239</v>
+        <v>0.05689279149359061</v>
       </c>
       <c r="F2">
-        <v>0.5792483914818902</v>
+        <v>0.5485447295213248</v>
       </c>
       <c r="G2">
-        <v>0.3548348532844585</v>
+        <v>0.3131950081381092</v>
       </c>
       <c r="H2">
-        <v>0.005644464641710645</v>
+        <v>0.004622996701610038</v>
       </c>
       <c r="I2">
-        <v>0.005780365011295086</v>
+        <v>0.00420825481715692</v>
       </c>
       <c r="J2">
-        <v>0.321958516585795</v>
+        <v>0.334833849881754</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.08850787258632486</v>
+        <v>0.1439753718208436</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08928735497055307</v>
       </c>
       <c r="N2">
-        <v>0.1930794909776523</v>
+        <v>0.08673305170244028</v>
       </c>
       <c r="O2">
-        <v>0.4553172711758364</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2057029864965543</v>
       </c>
       <c r="Q2">
-        <v>1.373632399658533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4600888026198433</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.285801871753819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.254924534736745</v>
+        <v>2.258930128451027</v>
       </c>
       <c r="C3">
-        <v>0.446506724427536</v>
+        <v>0.4396950170847447</v>
       </c>
       <c r="D3">
-        <v>0.07614544060057682</v>
+        <v>0.07741360867517955</v>
       </c>
       <c r="E3">
-        <v>0.05769628483515676</v>
+        <v>0.05661686063923765</v>
       </c>
       <c r="F3">
-        <v>0.5705056036888152</v>
+        <v>0.5423784531792464</v>
       </c>
       <c r="G3">
-        <v>0.3483335219743111</v>
+        <v>0.3099545906513157</v>
       </c>
       <c r="H3">
-        <v>0.007663611911093132</v>
+        <v>0.00633154311517467</v>
       </c>
       <c r="I3">
-        <v>0.007766045633866625</v>
+        <v>0.005677683219234453</v>
       </c>
       <c r="J3">
-        <v>0.3237627364526148</v>
+        <v>0.3349112955400884</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08679290670182382</v>
+        <v>0.150162223830467</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.09328663910278312</v>
       </c>
       <c r="N3">
-        <v>0.1724703288865115</v>
+        <v>0.08483946811585419</v>
       </c>
       <c r="O3">
-        <v>0.3976863113549101</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1836963488128589</v>
       </c>
       <c r="Q3">
-        <v>1.363319332949644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4013463177939016</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.281850663894161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.050685091996968</v>
+        <v>2.054878774242695</v>
       </c>
       <c r="C4">
-        <v>0.42295276120295</v>
+        <v>0.4112992126445647</v>
       </c>
       <c r="D4">
-        <v>0.07330887172030742</v>
+        <v>0.07460601181520587</v>
       </c>
       <c r="E4">
-        <v>0.05739917893660307</v>
+        <v>0.05643942020906989</v>
       </c>
       <c r="F4">
-        <v>0.565705485415279</v>
+        <v>0.5390376949090196</v>
       </c>
       <c r="G4">
-        <v>0.3447937354604704</v>
+        <v>0.3084116096980623</v>
       </c>
       <c r="H4">
-        <v>0.009107886734815857</v>
+        <v>0.007557797728615312</v>
       </c>
       <c r="I4">
-        <v>0.009222248676548972</v>
+        <v>0.006778112114376178</v>
       </c>
       <c r="J4">
-        <v>0.3251801838942114</v>
+        <v>0.335075079362511</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08571213621010365</v>
+        <v>0.154169595915107</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0962824535455864</v>
       </c>
       <c r="N4">
-        <v>0.1598844612995052</v>
+        <v>0.08365991825642638</v>
       </c>
       <c r="O4">
-        <v>0.3622924680668902</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1702903166129914</v>
       </c>
       <c r="Q4">
-        <v>1.358585495585004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3652725319039831</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.280648959497725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.967249032194218</v>
+        <v>1.971495280943941</v>
       </c>
       <c r="C5">
-        <v>0.4140848431780597</v>
+        <v>0.4005036258284917</v>
       </c>
       <c r="D5">
-        <v>0.07217398873665815</v>
+        <v>0.07348431314098036</v>
       </c>
       <c r="E5">
-        <v>0.05725773867453121</v>
+        <v>0.05634857754580258</v>
       </c>
       <c r="F5">
-        <v>0.5633757486595883</v>
+        <v>0.5373005344605559</v>
       </c>
       <c r="G5">
-        <v>0.3430174194019173</v>
+        <v>0.3074790460018377</v>
       </c>
       <c r="H5">
-        <v>0.009749111139900436</v>
+        <v>0.008103214449412949</v>
       </c>
       <c r="I5">
-        <v>0.009955584497387093</v>
+        <v>0.007368890934918326</v>
       </c>
       <c r="J5">
-        <v>0.3256000253392344</v>
+        <v>0.3349418438384575</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08527208247586948</v>
+        <v>0.1556968156687262</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09758188616217733</v>
       </c>
       <c r="N5">
-        <v>0.1549575816067303</v>
+        <v>0.08318459596821626</v>
       </c>
       <c r="O5">
-        <v>0.3479714449935969</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1650350800016795</v>
       </c>
       <c r="Q5">
-        <v>1.355616124632391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3506722140139331</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.279111674958116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.953272508563032</v>
+        <v>1.957526960279438</v>
       </c>
       <c r="C6">
-        <v>0.4134585283667036</v>
+        <v>0.3995678265911522</v>
       </c>
       <c r="D6">
-        <v>0.07200271513097078</v>
+        <v>0.07331490687649733</v>
       </c>
       <c r="E6">
-        <v>0.05721246099682675</v>
+        <v>0.05631330679037649</v>
       </c>
       <c r="F6">
-        <v>0.5623718340717616</v>
+        <v>0.5364277188941955</v>
       </c>
       <c r="G6">
-        <v>0.3421881419540611</v>
+        <v>0.3068290017075626</v>
       </c>
       <c r="H6">
-        <v>0.009862526765398019</v>
+        <v>0.008199883060338781</v>
       </c>
       <c r="I6">
-        <v>0.01018908942448515</v>
+        <v>0.007594083995853929</v>
       </c>
       <c r="J6">
-        <v>0.3253888794395294</v>
+        <v>0.3346424303531137</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08520809221118419</v>
+        <v>0.1557616119356506</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09773713008865448</v>
       </c>
       <c r="N6">
-        <v>0.1543688191845192</v>
+        <v>0.08311768471377867</v>
       </c>
       <c r="O6">
-        <v>0.3457235639365734</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1643877949220638</v>
       </c>
       <c r="Q6">
-        <v>1.353401949369925</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3483740592518103</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.277233934494177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.049243914322858</v>
+        <v>2.053415163398654</v>
       </c>
       <c r="C7">
-        <v>0.4251461608494651</v>
+        <v>0.4132679371223276</v>
       </c>
       <c r="D7">
-        <v>0.07333936372322825</v>
+        <v>0.07474309689055758</v>
       </c>
       <c r="E7">
-        <v>0.05733873385556487</v>
+        <v>0.05637971495758931</v>
       </c>
       <c r="F7">
-        <v>0.5639684240545861</v>
+        <v>0.5365885933681938</v>
       </c>
       <c r="G7">
-        <v>0.3432938916778525</v>
+        <v>0.3091663693992999</v>
       </c>
       <c r="H7">
-        <v>0.009126580507082913</v>
+        <v>0.007579828844864911</v>
       </c>
       <c r="I7">
-        <v>0.009511160325081036</v>
+        <v>0.007112382242882909</v>
       </c>
       <c r="J7">
-        <v>0.3244081280943476</v>
+        <v>0.3308285144385508</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08573353923768501</v>
+        <v>0.1535034593526987</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09602850018931353</v>
       </c>
       <c r="N7">
-        <v>0.1604427358832936</v>
+        <v>0.08367678487475771</v>
       </c>
       <c r="O7">
-        <v>0.362456072188472</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.170849247069647</v>
       </c>
       <c r="Q7">
-        <v>1.35378781496739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.365432152798185</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.273698688750443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.472076937378688</v>
+        <v>2.475703224078643</v>
       </c>
       <c r="C8">
-        <v>0.4749073867503739</v>
+        <v>0.4727052732732773</v>
       </c>
       <c r="D8">
-        <v>0.07925967620433028</v>
+        <v>0.08086280258488898</v>
       </c>
       <c r="E8">
-        <v>0.05792941927070672</v>
+        <v>0.05671855724507679</v>
       </c>
       <c r="F8">
-        <v>0.5738706514889671</v>
+        <v>0.541534891616017</v>
       </c>
       <c r="G8">
-        <v>0.3505536558258697</v>
+        <v>0.3173336258980299</v>
       </c>
       <c r="H8">
-        <v>0.006307379308935157</v>
+        <v>0.005198021838197509</v>
       </c>
       <c r="I8">
-        <v>0.006748715479186984</v>
+        <v>0.005074220730712398</v>
       </c>
       <c r="J8">
-        <v>0.3214963323284294</v>
+        <v>0.3225712067798909</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.08796451426135476</v>
+        <v>0.1449661277719336</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08994589319754631</v>
       </c>
       <c r="N8">
-        <v>0.1867900475444415</v>
+        <v>0.08610467825033474</v>
       </c>
       <c r="O8">
-        <v>0.4359206681257675</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1989678085015569</v>
       </c>
       <c r="Q8">
-        <v>1.36348383483292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4403279988647668</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.27026044237175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.299041562819639</v>
+        <v>3.300722788733708</v>
       </c>
       <c r="C9">
-        <v>0.5699315736909512</v>
+        <v>0.5886700952315209</v>
       </c>
       <c r="D9">
-        <v>0.09104558691112885</v>
+        <v>0.09270179259277711</v>
       </c>
       <c r="E9">
-        <v>0.05911145942761609</v>
+        <v>0.05742972910693744</v>
       </c>
       <c r="F9">
-        <v>0.6010545906194409</v>
+        <v>0.5607663291891427</v>
       </c>
       <c r="G9">
-        <v>0.3712331226779995</v>
+        <v>0.3317232998257253</v>
       </c>
       <c r="H9">
-        <v>0.002484829560969293</v>
+        <v>0.001983557056573826</v>
       </c>
       <c r="I9">
-        <v>0.002900387218286227</v>
+        <v>0.00222784017128852</v>
       </c>
       <c r="J9">
-        <v>0.3197154873991011</v>
+        <v>0.3209245278772457</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.09206966129629457</v>
+        <v>0.1313101997338126</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08306823766478111</v>
       </c>
       <c r="N9">
-        <v>0.2379488252618671</v>
+        <v>0.09070736569161042</v>
       </c>
       <c r="O9">
-        <v>0.5793906881655246</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2538502379978098</v>
       </c>
       <c r="Q9">
-        <v>1.404319110743771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5865862836905649</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.290610441846979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.908615678540343</v>
+        <v>3.908096679921755</v>
       </c>
       <c r="C10">
-        <v>0.6483288858329388</v>
+        <v>0.6811210992179326</v>
       </c>
       <c r="D10">
-        <v>0.09848406188270076</v>
+        <v>0.1008180494805515</v>
       </c>
       <c r="E10">
-        <v>0.05923332821601601</v>
+        <v>0.05729803055653138</v>
       </c>
       <c r="F10">
-        <v>0.6142787054571102</v>
+        <v>0.5642017577305225</v>
       </c>
       <c r="G10">
-        <v>0.381722488426135</v>
+        <v>0.3514465061136107</v>
       </c>
       <c r="H10">
-        <v>0.001110298644288576</v>
+        <v>0.0008948437581048907</v>
       </c>
       <c r="I10">
-        <v>0.001598660609761104</v>
+        <v>0.001456634387897005</v>
       </c>
       <c r="J10">
-        <v>0.316322428686604</v>
+        <v>0.2991075809357042</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.09610000614617675</v>
+        <v>0.1206267834956645</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07872850045810509</v>
       </c>
       <c r="N10">
-        <v>0.2690298843577352</v>
+        <v>0.09532385289804068</v>
       </c>
       <c r="O10">
-        <v>0.6809412374897477</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2873935974160275</v>
       </c>
       <c r="Q10">
-        <v>1.41994391346779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6899942596579365</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.27905684795833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.212956957955726</v>
+        <v>4.212360719703611</v>
       </c>
       <c r="C11">
-        <v>0.7453650419657833</v>
+        <v>0.7743710110563029</v>
       </c>
       <c r="D11">
-        <v>0.08993073243190253</v>
+        <v>0.09319480103301458</v>
       </c>
       <c r="E11">
-        <v>0.05593670459177169</v>
+        <v>0.0545156141445462</v>
       </c>
       <c r="F11">
-        <v>0.5419432730133877</v>
+        <v>0.4911957680064845</v>
       </c>
       <c r="G11">
-        <v>0.3294449927062715</v>
+        <v>0.3313937196519348</v>
       </c>
       <c r="H11">
-        <v>0.01958821419525947</v>
+        <v>0.01942045346900656</v>
       </c>
       <c r="I11">
-        <v>0.001843385985849544</v>
+        <v>0.001933636660768734</v>
       </c>
       <c r="J11">
-        <v>0.2854355266492234</v>
+        <v>0.2442277655733989</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1137984872620841</v>
+        <v>0.1082499082740469</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06634905787756473</v>
       </c>
       <c r="N11">
-        <v>0.2238467541166784</v>
+        <v>0.1147980791345695</v>
       </c>
       <c r="O11">
-        <v>0.6906073803045771</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2389771143820951</v>
       </c>
       <c r="Q11">
-        <v>1.244653306221977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6987289182811907</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.100738872410702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.342675234305602</v>
+        <v>4.342686292587018</v>
       </c>
       <c r="C12">
-        <v>0.8115499266156974</v>
+        <v>0.8336273277400039</v>
       </c>
       <c r="D12">
-        <v>0.08147578086778395</v>
+        <v>0.08488996091940493</v>
       </c>
       <c r="E12">
-        <v>0.0566674586798559</v>
+        <v>0.05552911643063307</v>
       </c>
       <c r="F12">
-        <v>0.483770916014258</v>
+        <v>0.4372914536218531</v>
       </c>
       <c r="G12">
-        <v>0.2877869151036236</v>
+        <v>0.3045196926966227</v>
       </c>
       <c r="H12">
-        <v>0.05829971698125291</v>
+        <v>0.05813950347612717</v>
       </c>
       <c r="I12">
-        <v>0.001779598086099732</v>
+        <v>0.001898029438462956</v>
       </c>
       <c r="J12">
-        <v>0.2622778343239105</v>
+        <v>0.219160467445878</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1359447392896911</v>
+        <v>0.1024492142012314</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.0586372640135373</v>
       </c>
       <c r="N12">
-        <v>0.1823438753315401</v>
+        <v>0.1379307369934253</v>
       </c>
       <c r="O12">
-        <v>0.676182080498144</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1944917983032184</v>
       </c>
       <c r="Q12">
-        <v>1.107927092059228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6831146389980347</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9755830260375262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.343719868979804</v>
+        <v>4.345036842955778</v>
       </c>
       <c r="C13">
-        <v>0.8607541397294369</v>
+        <v>0.8739496995658271</v>
       </c>
       <c r="D13">
-        <v>0.07271237626815719</v>
+        <v>0.0755423713876695</v>
       </c>
       <c r="E13">
-        <v>0.06033617699828486</v>
+        <v>0.05938768407815953</v>
       </c>
       <c r="F13">
-        <v>0.4303210206998358</v>
+        <v>0.3930193453724229</v>
       </c>
       <c r="G13">
-        <v>0.2494198507366008</v>
+        <v>0.2645839268430947</v>
       </c>
       <c r="H13">
-        <v>0.1142017592787852</v>
+        <v>0.1140147062452428</v>
       </c>
       <c r="I13">
-        <v>0.001821374175068335</v>
+        <v>0.001896745547819378</v>
       </c>
       <c r="J13">
-        <v>0.2423986346936076</v>
+        <v>0.2113834767670788</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1624410488291659</v>
+        <v>0.09986579289356512</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05380167061365437</v>
       </c>
       <c r="N13">
-        <v>0.1424815450367305</v>
+        <v>0.1646630382351191</v>
       </c>
       <c r="O13">
-        <v>0.6430488073518603</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1517323884581288</v>
       </c>
       <c r="Q13">
-        <v>0.9849442195512808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6485008078121339</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8786044265060582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.285960609512188</v>
+        <v>4.288491829432189</v>
       </c>
       <c r="C14">
-        <v>0.8885406259197737</v>
+        <v>0.894532238463313</v>
       </c>
       <c r="D14">
-        <v>0.06656045021742329</v>
+        <v>0.06874280807008404</v>
       </c>
       <c r="E14">
-        <v>0.06463126597112812</v>
+        <v>0.06377511242997436</v>
       </c>
       <c r="F14">
-        <v>0.3953541989762357</v>
+        <v>0.3659605204646255</v>
       </c>
       <c r="G14">
-        <v>0.2242491544720835</v>
+        <v>0.2324713132449219</v>
       </c>
       <c r="H14">
-        <v>0.1637077224716137</v>
+        <v>0.1634838705349893</v>
       </c>
       <c r="I14">
-        <v>0.001997459028369342</v>
+        <v>0.002021865096866193</v>
       </c>
       <c r="J14">
-        <v>0.2300201288225097</v>
+        <v>0.2115181308024532</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1838300439020202</v>
+        <v>0.09921139093980569</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05184731607113768</v>
       </c>
       <c r="N14">
-        <v>0.116272876754401</v>
+        <v>0.1857289838812548</v>
       </c>
       <c r="O14">
-        <v>0.6116469809250873</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1236531256366646</v>
       </c>
       <c r="Q14">
-        <v>0.9056034823151862</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6159407880924022</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8218371536099625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.244093069089331</v>
+        <v>4.247051375744661</v>
       </c>
       <c r="C15">
-        <v>0.8921758418510706</v>
+        <v>0.896140190925621</v>
       </c>
       <c r="D15">
-        <v>0.06496934552738054</v>
+        <v>0.06689636081526373</v>
       </c>
       <c r="E15">
-        <v>0.06584938507330484</v>
+        <v>0.06502785275603173</v>
       </c>
       <c r="F15">
-        <v>0.3870298601939766</v>
+        <v>0.3603057910469296</v>
       </c>
       <c r="G15">
-        <v>0.2181415714902215</v>
+        <v>0.2224581579718574</v>
       </c>
       <c r="H15">
-        <v>0.1763034619589376</v>
+        <v>0.1760590712050742</v>
       </c>
       <c r="I15">
-        <v>0.002195330765571768</v>
+        <v>0.002210697243592463</v>
       </c>
       <c r="J15">
-        <v>0.2273699679128072</v>
+        <v>0.2138210914586871</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1889555841222332</v>
+        <v>0.09935393346681554</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05180539238721593</v>
       </c>
       <c r="N15">
-        <v>0.1099040029017431</v>
+        <v>0.1906415887311681</v>
       </c>
       <c r="O15">
-        <v>0.6002797391571093</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1168249135474824</v>
       </c>
       <c r="Q15">
-        <v>0.8870698541575024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6042299281887225</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8109795819626839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.97964517832861</v>
+        <v>3.983687603132921</v>
       </c>
       <c r="C16">
-        <v>0.8477535358706518</v>
+        <v>0.849813442489733</v>
       </c>
       <c r="D16">
-        <v>0.06375543094476654</v>
+        <v>0.06483552600266762</v>
       </c>
       <c r="E16">
-        <v>0.06480501545382822</v>
+        <v>0.06416510472140402</v>
       </c>
       <c r="F16">
-        <v>0.3912519534932954</v>
+        <v>0.3711690716299749</v>
       </c>
       <c r="G16">
-        <v>0.2204664889956618</v>
+        <v>0.2066657719716645</v>
       </c>
       <c r="H16">
-        <v>0.1641109656118402</v>
+        <v>0.1637398426405241</v>
       </c>
       <c r="I16">
-        <v>0.002777981699073173</v>
+        <v>0.002624439978255566</v>
       </c>
       <c r="J16">
-        <v>0.2321994565621566</v>
+        <v>0.2373908736318207</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1808847724735188</v>
+        <v>0.1021826640264487</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0556213717117866</v>
       </c>
       <c r="N16">
-        <v>0.1060271606292531</v>
+        <v>0.1818065927358035</v>
       </c>
       <c r="O16">
-        <v>0.5643192684323992</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1126449496902353</v>
       </c>
       <c r="Q16">
-        <v>0.9019024795792205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5677419453799075</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8451176053192313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.808074418461842</v>
+        <v>3.812216977732078</v>
       </c>
       <c r="C17">
-        <v>0.7990880049081852</v>
+        <v>0.8031685164757505</v>
       </c>
       <c r="D17">
-        <v>0.06602799037391094</v>
+        <v>0.06685223919661354</v>
       </c>
       <c r="E17">
-        <v>0.0614645024380458</v>
+        <v>0.06087938391412884</v>
       </c>
       <c r="F17">
-        <v>0.4127689212192891</v>
+        <v>0.3934012092378794</v>
       </c>
       <c r="G17">
-        <v>0.2354071158371838</v>
+        <v>0.2128486700487784</v>
       </c>
       <c r="H17">
-        <v>0.1266959798449392</v>
+        <v>0.1262420524967922</v>
       </c>
       <c r="I17">
-        <v>0.003188259670916516</v>
+        <v>0.002927816328302413</v>
       </c>
       <c r="J17">
-        <v>0.2424231861814121</v>
+        <v>0.2557315850043267</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1628265925981793</v>
+        <v>0.1052296890730859</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05938602960447703</v>
       </c>
       <c r="N17">
-        <v>0.116445277814293</v>
+        <v>0.163529045839077</v>
       </c>
       <c r="O17">
-        <v>0.5533718962845313</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.123733379237315</v>
       </c>
       <c r="Q17">
-        <v>0.9548561218364426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5570064042724852</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9003568174344707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.697088306180092</v>
+        <v>3.700640887287648</v>
       </c>
       <c r="C18">
-        <v>0.7406398537910661</v>
+        <v>0.7503452124998944</v>
       </c>
       <c r="D18">
-        <v>0.07177202763497093</v>
+        <v>0.07261307891990043</v>
       </c>
       <c r="E18">
-        <v>0.05740040378855671</v>
+        <v>0.05672287965727119</v>
       </c>
       <c r="F18">
-        <v>0.4543742385324023</v>
+        <v>0.4317146852544766</v>
       </c>
       <c r="G18">
-        <v>0.2651156588759775</v>
+        <v>0.2357796489552086</v>
       </c>
       <c r="H18">
-        <v>0.07400461370817624</v>
+        <v>0.07351918729686702</v>
       </c>
       <c r="I18">
-        <v>0.00311134409022884</v>
+        <v>0.002755561038624066</v>
       </c>
       <c r="J18">
-        <v>0.2594994520296581</v>
+        <v>0.2749903814580961</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1376638696185921</v>
+        <v>0.1096230570508538</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06412945432954498</v>
       </c>
       <c r="N18">
-        <v>0.1422372986209126</v>
+        <v>0.1383179287607845</v>
       </c>
       <c r="O18">
-        <v>0.5622531370826209</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1512682848513833</v>
       </c>
       <c r="Q18">
-        <v>1.053524016104959</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5667607890325428</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9899440543464948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.642343975418214</v>
+        <v>3.644873810636625</v>
       </c>
       <c r="C19">
-        <v>0.6867170831235967</v>
+        <v>0.7039262997244577</v>
       </c>
       <c r="D19">
-        <v>0.08037713916895228</v>
+        <v>0.08139930586725086</v>
       </c>
       <c r="E19">
-        <v>0.05549465379672958</v>
+        <v>0.05451306081777352</v>
       </c>
       <c r="F19">
-        <v>0.5095874851963771</v>
+        <v>0.4807086735290866</v>
       </c>
       <c r="G19">
-        <v>0.3047016386665433</v>
+        <v>0.2688568708428107</v>
       </c>
       <c r="H19">
-        <v>0.0285656372162677</v>
+        <v>0.0281090513397757</v>
       </c>
       <c r="I19">
-        <v>0.003178575039246567</v>
+        <v>0.002862928488075234</v>
       </c>
       <c r="J19">
-        <v>0.2807270721365995</v>
+        <v>0.2946831330638204</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1145112874563523</v>
+        <v>0.1152111353955885</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06984937620995169</v>
       </c>
       <c r="N19">
-        <v>0.1829557963784367</v>
+        <v>0.1148559634738398</v>
       </c>
       <c r="O19">
-        <v>0.5871155257772145</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1947757844297158</v>
       </c>
       <c r="Q19">
-        <v>1.181876625081173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5929612418881831</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.10102485444159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.747653069504565</v>
+        <v>3.747924207279823</v>
       </c>
       <c r="C20">
-        <v>0.6355393561632638</v>
+        <v>0.6656524780573818</v>
       </c>
       <c r="D20">
-        <v>0.09660561836480497</v>
+        <v>0.09835445285172284</v>
       </c>
       <c r="E20">
-        <v>0.05901238805618858</v>
+        <v>0.05717320666397452</v>
       </c>
       <c r="F20">
-        <v>0.605021831073806</v>
+        <v>0.560856838340321</v>
       </c>
       <c r="G20">
-        <v>0.3740123794705354</v>
+        <v>0.3337817389977076</v>
       </c>
       <c r="H20">
-        <v>0.001385149356544879</v>
+        <v>0.001099081842951932</v>
       </c>
       <c r="I20">
-        <v>0.002670267200356236</v>
+        <v>0.002556592500390309</v>
       </c>
       <c r="J20">
-        <v>0.3146164551324233</v>
+        <v>0.3136911376900713</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.09523475584856556</v>
+        <v>0.1227391296183225</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07909352379616763</v>
       </c>
       <c r="N20">
-        <v>0.2625063262133409</v>
+        <v>0.09437077320398402</v>
       </c>
       <c r="O20">
-        <v>0.6552165109349275</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.28011466592136</v>
       </c>
       <c r="Q20">
-        <v>1.399900347066307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6637122870604273</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.276228823166207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.210739170272632</v>
+        <v>4.208139728134483</v>
       </c>
       <c r="C21">
-        <v>0.6851526256183149</v>
+        <v>0.7231734381737169</v>
       </c>
       <c r="D21">
-        <v>0.1045516450852375</v>
+        <v>0.1090979497743518</v>
       </c>
       <c r="E21">
-        <v>0.06018205742913718</v>
+        <v>0.05798232591578589</v>
       </c>
       <c r="F21">
-        <v>0.6315654253272456</v>
+        <v>0.5627374243649612</v>
       </c>
       <c r="G21">
-        <v>0.3942714254132085</v>
+        <v>0.4038365256123626</v>
       </c>
       <c r="H21">
-        <v>0.0003769218876750191</v>
+        <v>0.0002811607160292384</v>
       </c>
       <c r="I21">
-        <v>0.001937618345209557</v>
+        <v>0.002138066600147148</v>
       </c>
       <c r="J21">
-        <v>0.3183908710432775</v>
+        <v>0.2514500192587406</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.09656003672949254</v>
+        <v>0.1150838295859806</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07620339212131633</v>
       </c>
       <c r="N21">
-        <v>0.2974429031414019</v>
+        <v>0.09576399666974922</v>
       </c>
       <c r="O21">
-        <v>0.7395629145024571</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3181785733780913</v>
       </c>
       <c r="Q21">
-        <v>1.451119907175922</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7499654062476253</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.255786729438327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.515521299637726</v>
+        <v>4.510862283401309</v>
       </c>
       <c r="C22">
-        <v>0.7178258499637877</v>
+        <v>0.7602728959590763</v>
       </c>
       <c r="D22">
-        <v>0.1089981963572058</v>
+        <v>0.1156307782488994</v>
       </c>
       <c r="E22">
-        <v>0.0606629660474578</v>
+        <v>0.05829094538076918</v>
       </c>
       <c r="F22">
-        <v>0.6471128902239371</v>
+        <v>0.5611593024500579</v>
       </c>
       <c r="G22">
-        <v>0.4065953304787371</v>
+        <v>0.4565710369784881</v>
       </c>
       <c r="H22">
-        <v>9.060973535923722E-05</v>
+        <v>6.23950963259956E-05</v>
       </c>
       <c r="I22">
-        <v>0.001445811040238887</v>
+        <v>0.001710998538642095</v>
       </c>
       <c r="J22">
-        <v>0.3204444418956029</v>
+        <v>0.2172397222051785</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.0979179099538392</v>
+        <v>0.1102202825902188</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07433071864228147</v>
       </c>
       <c r="N22">
-        <v>0.3158386966611602</v>
+        <v>0.09727369850999779</v>
       </c>
       <c r="O22">
-        <v>0.7921603920490341</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3384160819274342</v>
       </c>
       <c r="Q22">
-        <v>1.481778587961202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.803713668981608</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.236657749257162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.35324911519649</v>
+        <v>4.349782445061464</v>
       </c>
       <c r="C23">
-        <v>0.697451818774141</v>
+        <v>0.7380191681816939</v>
       </c>
       <c r="D23">
-        <v>0.1065650965585192</v>
+        <v>0.1117585203814571</v>
       </c>
       <c r="E23">
-        <v>0.0604679748523429</v>
+        <v>0.0581794935088813</v>
       </c>
       <c r="F23">
-        <v>0.6407043498683009</v>
+        <v>0.5657779619722092</v>
       </c>
       <c r="G23">
-        <v>0.4016574243822788</v>
+        <v>0.4230775075224074</v>
       </c>
       <c r="H23">
-        <v>0.0002171830698336485</v>
+        <v>0.0001567812919538447</v>
       </c>
       <c r="I23">
-        <v>0.001368087141994323</v>
+        <v>0.001542852154579499</v>
       </c>
       <c r="J23">
-        <v>0.3201938951747252</v>
+        <v>0.2403575452114524</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.09714074986398202</v>
+        <v>0.1132701345553029</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07601251604437387</v>
       </c>
       <c r="N23">
-        <v>0.3052512250133077</v>
+        <v>0.09640118194064229</v>
       </c>
       <c r="O23">
-        <v>0.7636502806159555</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3267982839738579</v>
       </c>
       <c r="Q23">
-        <v>1.470661940472013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7745795134377715</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.257624718574732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.738265386175954</v>
+        <v>3.7384319438018</v>
       </c>
       <c r="C24">
-        <v>0.6254412681672932</v>
+        <v>0.6558744703956734</v>
       </c>
       <c r="D24">
-        <v>0.09751981063988069</v>
+        <v>0.09928031589634401</v>
       </c>
       <c r="E24">
-        <v>0.05962471184117213</v>
+        <v>0.05770727887928651</v>
       </c>
       <c r="F24">
-        <v>0.6148341202602907</v>
+        <v>0.5697105269302583</v>
       </c>
       <c r="G24">
-        <v>0.3815510656119656</v>
+        <v>0.3400043906966488</v>
       </c>
       <c r="H24">
-        <v>0.00122326315066934</v>
+        <v>0.0009424592638652696</v>
       </c>
       <c r="I24">
-        <v>0.002155991852710315</v>
+        <v>0.001944383328656762</v>
       </c>
       <c r="J24">
-        <v>0.3186143101167005</v>
+        <v>0.3177018397991063</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.09425186660415186</v>
+        <v>0.1241851829126475</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08059098532100428</v>
       </c>
       <c r="N24">
-        <v>0.2665809802674204</v>
+        <v>0.09321167179753509</v>
       </c>
       <c r="O24">
-        <v>0.6565348534489672</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2845803358230796</v>
       </c>
       <c r="Q24">
-        <v>1.424247702006994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.665187231298944</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.29783520131457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.074942367973449</v>
+        <v>3.077324604291505</v>
       </c>
       <c r="C25">
-        <v>0.548359681930549</v>
+        <v>0.5617581553740933</v>
       </c>
       <c r="D25">
-        <v>0.08791166336619938</v>
+        <v>0.0893889811812727</v>
       </c>
       <c r="E25">
-        <v>0.05870071055038117</v>
+        <v>0.05715893252188087</v>
       </c>
       <c r="F25">
-        <v>0.5901235243344587</v>
+        <v>0.5534668329977919</v>
       </c>
       <c r="G25">
-        <v>0.3625640419100691</v>
+        <v>0.3218702623343361</v>
       </c>
       <c r="H25">
-        <v>0.003330206393153179</v>
+        <v>0.002685627223653009</v>
       </c>
       <c r="I25">
-        <v>0.004175894400653135</v>
+        <v>0.003347080296386196</v>
       </c>
       <c r="J25">
-        <v>0.3185363212860324</v>
+        <v>0.3247230445362419</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.09104907065512968</v>
+        <v>0.1343707854908232</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08408021687246148</v>
       </c>
       <c r="N25">
-        <v>0.2251784770691501</v>
+        <v>0.08957871978260634</v>
       </c>
       <c r="O25">
-        <v>0.541207095343573</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2400040374996308</v>
       </c>
       <c r="Q25">
-        <v>1.383282924106453</v>
+        <v>0.547618373556034</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.279599309410216</v>
       </c>
     </row>
   </sheetData>
